--- a/biology/Biochimie/Oxygénase/Oxygénase.xlsx
+++ b/biology/Biochimie/Oxygénase/Oxygénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxyg%C3%A9nase</t>
+          <t>Oxygénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oxygénases sont des enzymes qui oxydent un substrat en y transférant un atome d'oxygène issu du dioxygène. Les oxygénases forment une famille d'oxydoréductases, leur numéro EC est EC 1.13 ou EC 1.14.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxyg%C3%A9nase</t>
+          <t>Oxygénase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les oxygénases sont découvertes en 1955 simultanément par deux groupes,  celui d'Osamu Hayaishi du Japon[1],[2],[3]  et celui d'Howard S. Mason des États-Unis[4],[5]. Osamu Hayaishi reçoit en 1986 le Prix Wolf de médecine « for the discovery of the oxygenase enzymes and elucidation of their structure and biological importance. » (pour la découverte des enzymes oxygénases et la compréhension de leur structure et de leur importance biologique)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oxygénases sont découvertes en 1955 simultanément par deux groupes,  celui d'Osamu Hayaishi du Japon  et celui d'Howard S. Mason des États-Unis,. Osamu Hayaishi reçoit en 1986 le Prix Wolf de médecine « for the discovery of the oxygenase enzymes and elucidation of their structure and biological importance. » (pour la découverte des enzymes oxygénases et la compréhension de leur structure et de leur importance biologique).
 </t>
         </is>
       </c>
